--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -3026,7 +3026,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3073,12 +3078,7 @@
           <t>Evelin</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -998,7 +998,11 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>*Ashley - Palmer will swap out Camry 3 to get serviced (warning lights currently on)</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1053,22 +1057,9 @@
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>w/ Qiana,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -1143,15 +1134,20 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>w/ Qiana,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -1227,20 +1223,15 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1317,17 +1308,18 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1404,18 +1396,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store,
-w/ Nate</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1480,17 +1471,18 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+w/ Nate</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1558,9 +1550,21 @@
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1615,7 +1619,7 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1667,11 +1671,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
@@ -1729,7 +1729,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1774,14 +1774,14 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t>3251 N PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1924,7 +1924,11 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -1962,21 +1966,9 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -2015,15 +2007,19 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2046,7 +2042,7 @@
       <c r="W30" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2075,12 +2071,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2130,19 +2126,15 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2190,15 +2182,19 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2213,7 +2209,7 @@
       <c r="S33" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2250,12 +2246,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2316,8 +2312,16 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2440,11 +2444,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Rockford - office/cars</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2502,7 +2502,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Rockford - office/cars</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2564,7 +2564,11 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3029,7 +3033,7 @@
       <c r="G50" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, help at Jerry's Pig after</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3008,7 +3008,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>PIGGLY WIGGLY #328, FOND DU LAC</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3107,7 +3107,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>131 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3154,7 +3154,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+          <t>https://goo.gl/maps/QmMfhkkrDpNxyhyC8</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3244,12 +3244,12 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store., Equip</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3283,10 +3283,14 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3318,10 +3322,14 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr"/>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3353,10 +3361,14 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3388,12 +3400,548 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store, help after Condon</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>KELLEY #43, BYRON MOBIL</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>100 S UNION</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -1820,10 +1820,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1864,21 +1868,9 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1963,7 +1955,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2000,7 +1996,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2064,7 +2060,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2119,7 +2115,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
+          <t>5542 E RIVERSIDE BLVD</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2175,7 +2171,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5542 E RIVERSIDE BLVD</t>
+          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2237,11 +2233,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2308,9 +2300,21 @@
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
@@ -2374,19 +2378,15 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2433,12 +2433,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2489,12 +2489,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2553,12 +2553,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2596,12 +2596,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2635,12 +2635,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2682,12 +2682,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2727,16 +2727,8 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -3789,7 +3789,8 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -3826,7 +3827,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -3931,7 +3937,11 @@
           <t>Tina E</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -2205,7 +2205,7 @@
       <c r="S33" t="inlineStr">
         <is>
           <t>@ Store,
-Red Camry, Equip</t>
+Lexus, Equip</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -2133,7 +2133,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>*Qiana - Lexus to Camry 3 swap should be happening this day</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -2192,22 +2196,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store,
-Lexus, Equip</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2250,15 +2241,20 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store,
+Lexus, Equip</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2330,20 +2326,15 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2394,15 +2385,20 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -2449,12 +2445,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2509,12 +2505,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2571,8 +2567,16 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2650,11 +2654,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2738,7 +2738,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2773,7 +2773,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2820,7 +2820,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2865,7 +2865,11 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2895,21 +2899,9 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -2936,15 +2928,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
@@ -2987,12 +2983,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3039,12 +3035,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3086,12 +3082,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3133,12 +3129,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3180,12 +3176,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3225,8 +3221,16 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3755,7 +3755,11 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>*IL Meet is 6:00 am at IL Office</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3781,22 +3785,9 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3823,18 +3814,18 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -3863,15 +3854,20 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -3898,12 +3894,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -3933,21 +3929,56 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04-13-25 to 04-19-25 Madison Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,10 +2207,15 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2263,15 +2268,10 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2336,16 +2336,8 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2456,7 +2448,11 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2518,7 +2514,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2582,7 +2578,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2621,7 +2617,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2660,7 +2656,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2705,11 +2701,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2743,9 +2735,21 @@
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2780,17 +2784,17 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, help at Jerry's Pig after</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2825,21 +2829,9 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store, help at Jerry's Pig after</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2904,7 +2896,11 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2945,7 +2941,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2996,7 +2992,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #328, FOND DU LAC</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3048,7 +3044,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #328, FOND DU LAC</t>
+          <t>131 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3095,7 +3091,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>131 UNIVERSITY AVE</t>
+          <t>https://goo.gl/maps/QmMfhkkrDpNxyhyC8</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3140,11 +3136,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QmMfhkkrDpNxyhyC8</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3186,9 +3178,21 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store., Equip</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3235,17 +3239,17 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store., Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3274,12 +3278,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3313,12 +3317,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3352,12 +3356,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3391,12 +3395,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3430,12 +3434,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3469,17 +3473,17 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, help after Condon</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3506,21 +3510,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store, help after Condon</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3573,7 +3565,11 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3602,7 +3598,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3633,7 +3629,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3664,7 +3660,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3695,7 +3691,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -3726,7 +3722,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+          <t>*IL Meet is 6:00 am at IL Office</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -3755,11 +3751,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>*IL Meet is 6:00 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3785,9 +3777,22 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3814,18 +3819,18 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store,
-Equip</t>
+          <t>Driver,
+Silver Van</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -3854,20 +3859,15 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -3894,12 +3894,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -3929,56 +3929,21 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
